--- a/trend_results/Rivers/OrouaatUSFeildingSTP_c14933bc09.xlsx
+++ b/trend_results/Rivers/OrouaatUSFeildingSTP_c14933bc09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.199851460891191</v>
+        <v>0.800148539108809</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.809564211921656</v>
+        <v>0.190435788078344</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.138868066289414</v>
+        <v>0.8611319337105861</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.117574139737278</v>
+        <v>0.882425860262722</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.40324797025367</v>
+        <v>0.0002553624489836</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.817391304347826</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.42</v>
+        <v>5.5</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0179589681440443</v>
+        <v>0.438054934302488</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0892068386098296</v>
+        <v>0.145844089263873</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0250790682137983</v>
+        <v>0.972515796874688</v>
       </c>
       <c r="N30" t="n">
-        <v>-4.27594479620103</v>
+        <v>7.96463516913615</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3200,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5</v>
+        <v>0.264220798247403</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0133333333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8</v>
+        <v>0.506666666666667</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>94</v>
+        <v>1.4</v>
       </c>
       <c r="K31" t="n">
-        <v>0.212018469656991</v>
+        <v>-0.0142981239840277</v>
       </c>
       <c r="L31" t="n">
-        <v>-5.67137403382103</v>
+        <v>-0.0450628797069793</v>
       </c>
       <c r="M31" t="n">
-        <v>0.8721063364342519</v>
+        <v>0.0190383052341543</v>
       </c>
       <c r="N31" t="n">
-        <v>0.225551563464884</v>
+        <v>-1.02129457028769</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3262,7 +3266,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.59675202974633</v>
+        <v>0.011584080787561</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.8098159509202451</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.907</v>
+        <v>10.5</v>
       </c>
       <c r="K32" t="n">
-        <v>0.11856347676042</v>
+        <v>-0.0498521383075522</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.842929566920994</v>
+        <v>-0.07586411634985971</v>
       </c>
       <c r="M32" t="n">
-        <v>0.429324764758598</v>
+        <v>-0.0147669954292204</v>
       </c>
       <c r="N32" t="n">
-        <v>2.00716906653835</v>
+        <v>-0.474782269595736</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3374,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.024548990804633</v>
+        <v>0.931145742369109</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0359281437125748</v>
       </c>
       <c r="H33" t="n">
+        <v>0.311377245508982</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.4405</v>
+        <v>0.015</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0152326993583868</v>
+        <v>-0.000284961966062</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0316702888874678</v>
+        <v>-0.0007312512650769</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0046851508755856</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-3.45804752744309</v>
+        <v>-1.8997464404135</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,7 +3448,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,11 +3462,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3461,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.019439702257616</v>
+        <v>0.944587406830487</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0059880239520958</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9</v>
+        <v>0.706586826347305</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>100.5</v>
+        <v>210</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.43179145433163</v>
+        <v>-5.69671112115732</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.62482389084049</v>
+        <v>-11.925030222308</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.524347750943951</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.42466811376282</v>
+        <v>-2.71271958150349</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3523,7 +3539,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.185546684761349</v>
+        <v>0.999340125714347</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.446540880503145</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.622641509433962</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J35" t="n">
-        <v>5.9585</v>
+        <v>0.0133005936409573</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0511100682593857</v>
+        <v>-0.0004676336952366</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.211273238594981</v>
+        <v>-0.0013140502045606</v>
       </c>
       <c r="M35" t="n">
-        <v>0.06360523717609889</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.857767361909637</v>
+        <v>-3.51588589096196</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3581,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3610,7 +3630,1166 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.920086426183334</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.195945945945946</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0003334094020994</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.896012880305365</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.165562913907285</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.768211920529801</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0012449902301346</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.008476396253732799</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.454375996399492</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.999985382683632</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.611111111111111</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0313641686182669</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0200547097131745</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0415474221938788</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.40417743064777</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.91766820799164</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0419161676646707</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.826347305389222</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0024926069153776</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.008028130921422801</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.000260669517167</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.7789396610555051</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.926282036428598</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.70059880239521</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0048738226059654</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0132981815557206</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0001014521171589</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-1.01537970957614</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0059880239520958</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.532934131736527</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0007131432133151</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0005710285325731</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.631774524915854</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.897590361445783</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.905</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0115430733036344</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0540953707908216</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0327978721744648</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.39735192095127</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0179589681440443</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0892068386098296</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0250790682137983</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-4.27594479620103</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>94</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.212018469656991</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-5.67137403382103</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8721063364342519</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.225551563464884</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.907</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.11856347676042</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.842929566920994</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.429324764758598</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.00716906653835</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.024548990804633</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.4405</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0152326993583868</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0316702888874678</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.0046851508755856</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-3.45804752744309</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.019439702257616</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.43179145433163</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-2.62482389084049</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.524347750943951</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.42466811376282</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.185546684761349</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.9585</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.0511100682593857</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.211273238594981</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.06360523717609889</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.857767361909637</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OrouaatUSFeildingSTP_c14933bc09.xlsx
+++ b/trend_results/Rivers/OrouaatUSFeildingSTP_c14933bc09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.079037711782903</v>
+        <v>0.263440434309464</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H2" t="n">
         <v>0.875</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.32506625012156</v>
+        <v>1.09541552197802</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.399481688076548</v>
+        <v>-1.65051284593937</v>
       </c>
       <c r="M2" t="n">
-        <v>5.56271756162225</v>
+        <v>4.39068611296562</v>
       </c>
       <c r="N2" t="n">
-        <v>17.8851250009351</v>
+        <v>9.32268529342997</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.768783636774762</v>
+        <v>0.194161516768011</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.69811320754717</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2</v>
+        <v>1.015</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0968881855173129</v>
+        <v>-0.0537151209394308</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.120776486091859</v>
+        <v>-0.370968654916405</v>
       </c>
       <c r="M3" t="n">
-        <v>0.217178754981083</v>
+        <v>0.06957142857142851</v>
       </c>
       <c r="N3" t="n">
-        <v>8.07401545977608</v>
+        <v>-5.29213014181584</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.800148539108809</v>
+        <v>0.701558693314746</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.865384615384615</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.545</v>
+        <v>10.535</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0605505654491096</v>
+        <v>0.0526293009581887</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0611884978454793</v>
+        <v>-0.116614360225816</v>
       </c>
       <c r="M4" t="n">
-        <v>0.12758861478402</v>
+        <v>0.231412865214193</v>
       </c>
       <c r="N4" t="n">
-        <v>0.574211146980651</v>
+        <v>0.499566216973789</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.839950709587586</v>
+        <v>0.156401735614439</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0.013</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0008696428571428</v>
+        <v>0.0007247023809523</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0022079343539526</v>
+        <v>-0.0004440748265773</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0004637267132751</v>
+        <v>0.0018458592204605</v>
       </c>
       <c r="N5" t="n">
-        <v>-6.68956043956044</v>
+        <v>5.5746336996337</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.925123641436392</v>
+        <v>0.494045803408203</v>
       </c>
       <c r="G6" t="n">
         <v>0.0185185185185185</v>
       </c>
       <c r="H6" t="n">
-        <v>0.777777777777778</v>
+        <v>0.851851851851852</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K6" t="n">
-        <v>-28.8224489795918</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-75.8772363316653</v>
+        <v>-28.876284274721</v>
       </c>
       <c r="M6" t="n">
-        <v>3.33219652075661</v>
+        <v>26.0062233336985</v>
       </c>
       <c r="N6" t="n">
-        <v>-14.4112244897959</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,35 +1024,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.999532588467449</v>
+        <v>0.962874509737664</v>
       </c>
       <c r="G7" t="n">
-        <v>0.428571428571429</v>
+        <v>0.52</v>
       </c>
       <c r="H7" t="n">
-        <v>0.612244897959184</v>
+        <v>0.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.012780137436981</v>
+        <v>0.005</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0040482886047231</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0071653552724839</v>
+        <v>-0.0017313046392184</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0005236175871337</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-31.6764089954846</v>
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,35 +1115,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.862523751091506</v>
+        <v>0.955370501070581</v>
       </c>
       <c r="G8" t="n">
-        <v>0.203703703703704</v>
+        <v>0.185185185185185</v>
       </c>
       <c r="H8" t="n">
-        <v>0.351851851851852</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
       <c r="K8" t="n">
         <v>-0.0004348214285714</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0016891180694347</v>
+        <v>-0.0011858766233766</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-10.8705357142857</v>
+        <v>-12.4234693877551</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.5</v>
+        <v>0.0076466855150994</v>
       </c>
       <c r="G9" t="n">
         <v>0.0925925925925926</v>
@@ -1225,16 +1225,16 @@
         <v>0.177</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.0245984693877551</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0262892608419786</v>
+        <v>0.0089590812416295</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0249264083745237</v>
+        <v>0.0486851895724463</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>13.897440332065</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.190435788078344</v>
+        <v>0.30668639352499</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.826923076923077</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.89</v>
+        <v>7.86</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0426744957401383</v>
+        <v>-0.0196868248031038</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.119152042894473</v>
+        <v>-0.100359772680859</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0279053305262075</v>
+        <v>0.0555934860465551</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.540868133588571</v>
+        <v>-0.250468508945342</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1388,13 +1388,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5638130481717319</v>
+        <v>0.054088781393366</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.888888888888889</v>
+        <v>0.907407407407407</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1403,16 +1403,16 @@
         <v>0.225</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.000748974709501</v>
+        <v>0.0273557558945908</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0473208692502538</v>
+        <v>0.00052805497047</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0272871379934049</v>
+        <v>0.0428327968483946</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.332877648667123</v>
+        <v>12.1581137309293</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.931116246909504</v>
+        <v>0.0453012335014556</v>
       </c>
       <c r="G12" t="n">
-        <v>0.148148148148148</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.537037037037037</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7.5</v>
+        <v>0.415</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.25731497418244</v>
+        <v>0.0327872531418312</v>
       </c>
       <c r="L12" t="n">
-        <v>-6.59934110109129</v>
+        <v>0.0014607597154618</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0501717032967033</v>
       </c>
       <c r="N12" t="n">
-        <v>-16.7641996557659</v>
+        <v>7.90054292574247</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.81230040721703</v>
+        <v>0.175295770308443</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.777777777777778</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.42</v>
+        <v>0.0285</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0295350404312668</v>
+        <v>0.0019532085561497</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0801244266268826</v>
+        <v>-0.0014953356071447</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0099943730311033</v>
+        <v>0.0045775273066209</v>
       </c>
       <c r="N13" t="n">
-        <v>-7.03215248363496</v>
+        <v>6.85336335491134</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.945009262311139</v>
+        <v>0.335316866292631</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7037037037037041</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.029</v>
+        <v>3.765</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.003952922077922</v>
+        <v>0.128835978835979</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.011703808819637</v>
+        <v>-0.308277450482708</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.8696428571428581</v>
       </c>
       <c r="N14" t="n">
-        <v>-13.6307657859382</v>
+        <v>3.42193834889718</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,46 +1737,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0001264967984368</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0294117647058824</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.838235294117647</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0.973055416058521</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.962962962962963</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.422397959183674</v>
+        <v>1.4592986578868</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.18664960897736</v>
+        <v>0.554014488954913</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0774403196189476</v>
+        <v>2.21146465769037</v>
       </c>
       <c r="N15" t="n">
-        <v>-15.6443688586546</v>
+        <v>24.3216442981133</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0150914531267251</v>
+        <v>0.041249995412792</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0097087378640776</v>
       </c>
       <c r="H16" t="n">
-        <v>0.851351351351351</v>
+        <v>0.669902912621359</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>1.05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7500224359131969</v>
+        <v>-0.0589470836181362</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0778219793401561</v>
+        <v>-0.150058625467906</v>
       </c>
       <c r="M16" t="n">
-        <v>1.70238934817514</v>
+        <v>-0.0065634613894403</v>
       </c>
       <c r="N16" t="n">
-        <v>10.7146062273314</v>
+        <v>-5.61400796363202</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.120615096060743</v>
+        <v>0.967459747475532</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0091743119266055</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.642201834862385</v>
+        <v>0.845454545454545</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.4</v>
+        <v>10.325</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0400095366417022</v>
+        <v>0.0385760594046535</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.115978655327404</v>
+        <v>0.002662161371654</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0124843306340388</v>
+        <v>0.09101377511048039</v>
       </c>
       <c r="N17" t="n">
-        <v>-2.85782404583587</v>
+        <v>0.373618008761777</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8611319337105861</v>
+        <v>0.515853287041373</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8378378378378381</v>
+        <v>0.353982300884956</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.39</v>
+        <v>0.014</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0224692412850307</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0132138363503602</v>
+        <v>-0.0004831910069999</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0799694558665736</v>
+        <v>0.0004119632455003</v>
       </c>
       <c r="N18" t="n">
-        <v>0.216258337680758</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.306778508893208</v>
+        <v>0.567982869655385</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.0088495575221238</v>
       </c>
       <c r="H19" t="n">
-        <v>0.359649122807018</v>
+        <v>0.716814159292035</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.014</v>
+        <v>180</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001245311967269</v>
+        <v>-0.591239638627076</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0003105560021586</v>
+        <v>-11.4254374940504</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0005962441833414</v>
+        <v>8.928749887661301</v>
       </c>
       <c r="N19" t="n">
-        <v>0.889508548049291</v>
+        <v>-0.328466465903931</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.735479222273118</v>
+        <v>0.318389366526835</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0087719298245614</v>
+        <v>0.542056074766355</v>
       </c>
       <c r="H20" t="n">
-        <v>0.701754385964912</v>
+        <v>0.551401869158878</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>190</v>
+        <v>0.0086085763789034</v>
       </c>
       <c r="K20" t="n">
-        <v>-3.66165413533835</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-14.1626195273885</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>6.24694090787599</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.92718638702018</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,40 +2283,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.148538927567709</v>
+        <v>0.930850789874306</v>
       </c>
       <c r="G21" t="n">
-        <v>0.560747663551402</v>
+        <v>0.194690265486726</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5327102803738319</v>
+        <v>0.265486725663717</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0072495069200019</v>
+        <v>0.004</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0003786078373402</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2385,35 +2385,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.726101336099327</v>
+        <v>0.124696585162283</v>
       </c>
       <c r="G22" t="n">
-        <v>0.175438596491228</v>
+        <v>0.15929203539823</v>
       </c>
       <c r="H22" t="n">
-        <v>0.280701754385965</v>
+        <v>0.8141592920353981</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005</v>
+        <v>0.2532</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0013958598726114</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0002227695652162</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0071717443858119</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.551287469435808</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,35 +2476,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0727860944030005</v>
+        <v>0.635284351862103</v>
       </c>
       <c r="G23" t="n">
-        <v>0.210526315789474</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.763157894736842</v>
+        <v>0.718181818181818</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.19855</v>
+        <v>7.845</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.0033376636661212</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.0129293010261704</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0048520310012497</v>
+        <v>0.0250577695270632</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>0.0425451072800668</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.882425860262722</v>
+        <v>0.0923314699061126</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0530973451327434</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7</v>
+        <v>0.84070796460177</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>7.81</v>
+        <v>0.294</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0199499358582318</v>
+        <v>0.0028096153846153</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0060920365302806</v>
+        <v>-0.0001111084490341</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0381846209806896</v>
+        <v>0.0107941434270706</v>
       </c>
       <c r="N24" t="n">
-        <v>0.255440920079792</v>
+        <v>0.955651491365777</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0365377783883462</v>
+        <v>0.642115956384125</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0526315789473684</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.807017543859649</v>
+        <v>0.7079646017699111</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.258</v>
+        <v>0.46</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002490623934538</v>
+        <v>-0.0019991789819376</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-0.0189653096159292</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0077769121607634</v>
+        <v>0.0080066418901734</v>
       </c>
       <c r="N25" t="n">
-        <v>0.965358114162021</v>
+        <v>-0.434604126508174</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.555877342783016</v>
+        <v>0.799981380505401</v>
       </c>
       <c r="G26" t="n">
-        <v>0.114035087719298</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.464912280701754</v>
+        <v>0.628318584070796</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>0.031</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-0.0004880376982391</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.329859150294546</v>
+        <v>-0.0019289437384684</v>
       </c>
       <c r="M26" t="n">
-        <v>0.249605168672814</v>
+        <v>0.0006275917637454</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>-1.57431515561008</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2836,35 +2836,35 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.522098190475531</v>
+        <v>0.566549449467299</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.745614035087719</v>
+        <v>0.9203539823008851</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.44</v>
+        <v>4.87</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>-0.007996715927750401</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.009845013477088899</v>
+        <v>-0.126470154140232</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0064624890498631</v>
+        <v>0.119267493515926</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>-0.164203612479475</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.253011281283065</v>
+        <v>0.0011031759825726</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0165289256198347</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6052631578947369</v>
+        <v>0.809917355371901</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03</v>
+        <v>4.95</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0004993164730006</v>
+        <v>0.374487354750513</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0005001859101867999</v>
+        <v>0.0814279572382777</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0015021899585391</v>
+        <v>0.798902391366198</v>
       </c>
       <c r="N28" t="n">
-        <v>1.66438824333561</v>
+        <v>7.56540110607096</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.840198846034595</v>
+        <v>0.108108070154734</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="H29" t="n">
-        <v>0.921052631578947</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>3.55</v>
+        <v>1.2</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0583466453674121</v>
+        <v>-0.023582958325181</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.19266625781189</v>
+        <v>-0.0674268197332781</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0184451651724812</v>
+        <v>0.00578534919475</v>
       </c>
       <c r="N29" t="n">
-        <v>-1.64356747513837</v>
+        <v>-1.96524652709841</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0002553624489836</v>
+        <v>0.08435789680013391</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.817391304347826</v>
+        <v>0.808641975308642</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>5.5</v>
+        <v>10.47</v>
       </c>
       <c r="K30" t="n">
-        <v>0.438054934302488</v>
+        <v>-0.0276646328634548</v>
       </c>
       <c r="L30" t="n">
-        <v>0.145844089263873</v>
+        <v>-0.0553422327251708</v>
       </c>
       <c r="M30" t="n">
-        <v>0.972515796874688</v>
+        <v>0.0025307296164499</v>
       </c>
       <c r="N30" t="n">
-        <v>7.96463516913615</v>
+        <v>-0.264227630023446</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.264220798247403</v>
+        <v>0.936779407595883</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0133333333333333</v>
+        <v>0.0421686746987952</v>
       </c>
       <c r="H31" t="n">
-        <v>0.506666666666667</v>
+        <v>0.313253012048193</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.4</v>
+        <v>0.015</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0142981239840277</v>
+        <v>-0.0003332320566728</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0450628797069793</v>
+        <v>-0.0009143148516469</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0190383052341543</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.02129457028769</v>
+        <v>-2.22154704448566</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.86746517209896</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0060240963855421</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.704819277108434</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.011584080787561</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.8098159509202451</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>10.5</v>
+        <v>204</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0498521383075522</v>
+        <v>-3.93305814788227</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.07586411634985971</v>
+        <v>-10.1934326398272</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0147669954292204</v>
+        <v>1.73453726085779</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.474782269595736</v>
+        <v>-1.92796968033445</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.931145742369109</v>
+        <v>0.999986858131731</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0359281437125748</v>
+        <v>0.449367088607595</v>
       </c>
       <c r="H33" t="n">
-        <v>0.311377245508982</v>
+        <v>0.620253164556962</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J33" t="n">
-        <v>0.015</v>
+        <v>0.0122538836525961</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.000284961966062</v>
+        <v>-0.0009254396238083</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0007312512650769</v>
+        <v>-0.0021915040177302</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>-6.02816663267365e-05</v>
       </c>
       <c r="N33" t="n">
-        <v>-1.8997464404135</v>
+        <v>-7.5522148736275</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.944587406830487</v>
+        <v>0.991533771114242</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0059880239520958</v>
+        <v>0.19496855345912</v>
       </c>
       <c r="H34" t="n">
-        <v>0.706586826347305</v>
+        <v>0.232704402515723</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>210</v>
+        <v>0.004</v>
       </c>
       <c r="K34" t="n">
-        <v>-5.69671112115732</v>
+        <v>-0.000193357346642</v>
       </c>
       <c r="L34" t="n">
-        <v>-11.925030222308</v>
+        <v>-0.0003992383890356</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-2.71271958150349</v>
+        <v>-4.83393366605139</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.999340125714347</v>
+        <v>0.792780444740693</v>
       </c>
       <c r="G35" t="n">
-        <v>0.446540880503145</v>
+        <v>0.157232704402516</v>
       </c>
       <c r="H35" t="n">
-        <v>0.622641509433962</v>
+        <v>0.786163522012579</v>
       </c>
       <c r="I35" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0133005936409573</v>
+        <v>0.274</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0004676336952366</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0013140502045606</v>
+        <v>-0.0062182416203751</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-3.51588589096196</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,35 +3655,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.920086426183334</v>
+        <v>0.998182564540301</v>
       </c>
       <c r="G36" t="n">
-        <v>0.195945945945946</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.25</v>
+        <v>0.602484472049689</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.005</v>
+        <v>7.78</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0208714285714285</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0003334094020994</v>
+        <v>0.0102471937746739</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0340656278434941</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.268270290121189</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,35 +3742,35 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.896012880305365</v>
+        <v>0.975200443115797</v>
       </c>
       <c r="G37" t="n">
-        <v>0.165562913907285</v>
+        <v>0.036144578313253</v>
       </c>
       <c r="H37" t="n">
-        <v>0.768211920529801</v>
+        <v>0.86144578313253</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.274</v>
+        <v>0.329</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0012449902301346</v>
+        <v>-0.0058826660879162</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.008476396253732799</v>
+        <v>-0.0167550973586129</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-0.0002721214721614</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.454375996399492</v>
+        <v>-1.78804440362195</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3822,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.999985382683632</v>
+        <v>0.984893792786147</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.611111111111111</v>
+        <v>0.710843373493976</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.76</v>
+        <v>0.495</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0313641686182669</v>
+        <v>-0.0099578877047082</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0200547097131745</v>
+        <v>-0.0249932710621755</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0415474221938788</v>
+        <v>-0.0019185649509946</v>
       </c>
       <c r="N38" t="n">
-        <v>0.40417743064777</v>
+        <v>-2.01169448579964</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.91766820799164</v>
+        <v>0.632014151326977</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0419161676646707</v>
+        <v>0.0060240963855421</v>
       </c>
       <c r="H39" t="n">
-        <v>0.826347305389222</v>
+        <v>0.5481927710843369</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0.32</v>
+        <v>0.0345</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0024926069153776</v>
+        <v>-0.0001423701733786</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.008028130921422801</v>
+        <v>-0.000993526077058</v>
       </c>
       <c r="M39" t="n">
-        <v>0.000260669517167</v>
+        <v>0.000499421631798</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.7789396610555051</v>
+        <v>-0.412667169213572</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.926282036428598</v>
+        <v>0.45533810989989</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.70059880239521</v>
+        <v>0.8915662650602409</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.48</v>
+        <v>3.445</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0048738226059654</v>
+        <v>0.0026503821356128</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0132981815557206</v>
+        <v>-0.0465600070347622</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0001014521171589</v>
+        <v>0.0735172328016027</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.01537970957614</v>
+        <v>0.0769341693936974</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,46 +4095,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.0059880239520958</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.532934131736527</v>
-      </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.035</v>
+        <v>0.42</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-0.0299632943337207</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0007131432133151</v>
+        <v>-0.0892068386098296</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0005710285325731</v>
+        <v>-0.0003535560295432</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>-7.13411769850492</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4172,11 +4172,7 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4186,14 +4182,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4201,31 +4197,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.631774524915854</v>
+        <v>0.5</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.897590361445783</v>
+        <v>0.8</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.905</v>
+        <v>94.44</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0115430733036344</v>
+        <v>-0.226352112676055</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0540953707908216</v>
+        <v>-5.67137403382103</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0327978721744648</v>
+        <v>2.05841795515465</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.39735192095127</v>
+        <v>-0.239678221808614</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4263,11 +4259,7 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4277,7 +4269,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4292,7 +4284,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.40324797025367</v>
+        <v>0.5</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4304,19 +4296,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.42</v>
+        <v>6.06</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0179589681440443</v>
+        <v>-0.0496746872308385</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0892068386098296</v>
+        <v>-0.842929566920994</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0250790682137983</v>
+        <v>0.200428167472421</v>
       </c>
       <c r="N43" t="n">
-        <v>-4.27594479620103</v>
+        <v>-0.819714310739909</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4364,11 +4356,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4379,31 +4371,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.5</v>
+        <v>0.015911563693245</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>94</v>
+        <v>0.434</v>
       </c>
       <c r="K44" t="n">
-        <v>0.212018469656991</v>
+        <v>-0.0174748989218329</v>
       </c>
       <c r="L44" t="n">
-        <v>-5.67137403382103</v>
+        <v>-0.0316702888874678</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8721063364342519</v>
+        <v>-0.005858065915268</v>
       </c>
       <c r="N44" t="n">
-        <v>0.225551563464884</v>
+        <v>-4.02647440595227</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4412,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4451,11 +4443,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4466,31 +4458,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.59675202974633</v>
+        <v>0.063424647007573</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>5.907</v>
+        <v>99.5</v>
       </c>
       <c r="K45" t="n">
-        <v>0.11856347676042</v>
+        <v>-1.39070612668743</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.842929566920994</v>
+        <v>-2.62482389084049</v>
       </c>
       <c r="M45" t="n">
-        <v>0.429324764758598</v>
+        <v>-0.09553022752947669</v>
       </c>
       <c r="N45" t="n">
-        <v>2.00716906653835</v>
+        <v>-1.39769459968586</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4499,7 +4491,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4538,7 +4530,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4553,7 +4545,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.024548990804633</v>
+        <v>0.295752518497458</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4565,19 +4557,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4405</v>
+        <v>5.9835</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0152326993583868</v>
+        <v>-0.0403591160220995</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0316702888874678</v>
+        <v>-0.211273238594981</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0046851508755856</v>
+        <v>0.0840540312667781</v>
       </c>
       <c r="N46" t="n">
-        <v>-3.45804752744309</v>
+        <v>-0.67450682747722</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4578,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4616,180 +4608,6 @@
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Oroua at U/S Feilding STP</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0.019439702257616</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-1.43179145433163</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-2.62482389084049</v>
-      </c>
-      <c r="M47" t="n">
-        <v>-0.524347750943951</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-1.42466811376282</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Extremely unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>1816385</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5539997</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>Oroua</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Mana_12b</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Oroua at U/S Feilding STP</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>10</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.185546684761349</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>5.9585</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-0.0511100682593857</v>
-      </c>
-      <c r="L48" t="n">
-        <v>-0.211273238594981</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.06360523717609889</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-0.857767361909637</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>1816385</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5539997</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>Oroua</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Mana_12b</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OrouaatUSFeildingSTP_c14933bc09.xlsx
+++ b/trend_results/Rivers/OrouaatUSFeildingSTP_c14933bc09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="67">
   <si>
     <t>site name</t>
   </si>
@@ -136,61 +136,52 @@
     <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
   </si>
   <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
     <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
   </si>
   <si>
     <t>Virtually certain increasing</t>
@@ -675,38 +666,38 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.263440434309464</v>
+        <v>0.909040827571051</v>
       </c>
       <c r="G2">
-        <v>0.0625</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="H2">
-        <v>0.875</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="K2">
-        <v>1.09541552197802</v>
+        <v>-1.48734823644098</v>
       </c>
       <c r="L2">
-        <v>-1.65051284593937</v>
+        <v>-3.37846937458251</v>
       </c>
       <c r="M2">
-        <v>4.39068611296562</v>
+        <v>0.321784964369308</v>
       </c>
       <c r="N2">
-        <v>9.32268529342997</v>
+        <v>-13.5213476040089</v>
       </c>
       <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
-        <v>45</v>
-      </c>
       <c r="Q2">
         <v>1816385</v>
       </c>
@@ -714,19 +705,19 @@
         <v>5539997</v>
       </c>
       <c r="S2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" t="s">
         <v>61</v>
-      </c>
-      <c r="U2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -743,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>0.194161516768011</v>
+        <v>0.0087785220015149</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -758,22 +749,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.015</v>
+        <v>0.965</v>
       </c>
       <c r="K3">
-        <v>-0.0537151209394308</v>
+        <v>-0.30103021978022</v>
       </c>
       <c r="L3">
-        <v>-0.370968654916405</v>
+        <v>-0.579142757916856</v>
       </c>
       <c r="M3">
-        <v>0.06957142857142851</v>
+        <v>-0.07584768694806709</v>
       </c>
       <c r="N3">
-        <v>-5.29213014181584</v>
+        <v>-31.194841428002</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
         <v>45</v>
@@ -785,19 +776,19 @@
         <v>5539997</v>
       </c>
       <c r="S3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" t="s">
         <v>62</v>
-      </c>
-      <c r="V3" t="s">
-        <v>63</v>
-      </c>
-      <c r="W3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -811,40 +802,40 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>0.701558693314746</v>
+        <v>0.285093887545174</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.846153846153846</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.535</v>
+        <v>10.665</v>
       </c>
       <c r="K4">
-        <v>0.0526293009581887</v>
+        <v>-0.0330244122965641</v>
       </c>
       <c r="L4">
-        <v>-0.116614360225816</v>
+        <v>-0.149225319406764</v>
       </c>
       <c r="M4">
-        <v>0.231412865214193</v>
+        <v>0.100343406593406</v>
       </c>
       <c r="N4">
-        <v>0.499566216973789</v>
+        <v>-0.309652248444108</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
         <v>46</v>
@@ -856,19 +847,19 @@
         <v>5539997</v>
       </c>
       <c r="S4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" t="s">
         <v>63</v>
-      </c>
-      <c r="W4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -885,40 +876,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>0.156401735614439</v>
+        <v>0.100495497231983</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.481481481481481</v>
+        <v>0.425925925925926</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.013</v>
+        <v>0.0125</v>
       </c>
       <c r="K5">
-        <v>0.0007247023809523</v>
+        <v>0.0008152901785714001</v>
       </c>
       <c r="L5">
-        <v>-0.0004440748265773</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0018458592204605</v>
+        <v>0.0016305803571428</v>
       </c>
       <c r="N5">
-        <v>5.5746336996337</v>
+        <v>6.52232142857142</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>1816385</v>
@@ -927,19 +918,19 @@
         <v>5539997</v>
       </c>
       <c r="S5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -959,37 +950,37 @@
         <v>41</v>
       </c>
       <c r="F6">
-        <v>0.494045803408203</v>
+        <v>0.699274605964998</v>
       </c>
       <c r="G6">
-        <v>0.0185185185185185</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.851851851851852</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>150</v>
+        <v>124.6</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-8.1363196125908</v>
       </c>
       <c r="L6">
-        <v>-28.876284274721</v>
+        <v>-32.7759322202509</v>
       </c>
       <c r="M6">
-        <v>26.0062233336985</v>
+        <v>10.4012005654461</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-6.52995153498459</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1816385</v>
@@ -998,19 +989,19 @@
         <v>5539997</v>
       </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1030,13 +1021,13 @@
         <v>42</v>
       </c>
       <c r="F7">
-        <v>0.962874509737664</v>
+        <v>0.309547655493405</v>
       </c>
       <c r="G7">
-        <v>0.52</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1048,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.0017313046392184</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1057,10 +1048,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q7">
         <v>1816385</v>
@@ -1069,19 +1060,19 @@
         <v>5539997</v>
       </c>
       <c r="S7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1098,40 +1089,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>0.955370501070581</v>
+        <v>0.999086734038779</v>
       </c>
       <c r="G8">
+        <v>0.296296296296296</v>
+      </c>
+      <c r="H8">
         <v>0.185185185185185</v>
       </c>
-      <c r="H8">
-        <v>0.277777777777778</v>
-      </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.0035</v>
+        <v>0.003</v>
       </c>
       <c r="K8">
-        <v>-0.0004348214285714</v>
+        <v>-0.0006138655462184001</v>
       </c>
       <c r="L8">
-        <v>-0.0011858766233766</v>
+        <v>-0.0009616450754474</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-12.4234693877551</v>
+        <v>-20.4621848739496</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8">
         <v>1816385</v>
@@ -1140,19 +1131,19 @@
         <v>5539997</v>
       </c>
       <c r="S8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1169,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9">
-        <v>0.0076466855150994</v>
+        <v>0.286351179889155</v>
       </c>
       <c r="G9">
-        <v>0.0925925925925926</v>
+        <v>0.148148148148148</v>
       </c>
       <c r="H9">
-        <v>0.907407407407407</v>
+        <v>0.87037037037037</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1187,22 +1178,22 @@
         <v>0.177</v>
       </c>
       <c r="K9">
-        <v>0.0245984693877551</v>
+        <v>0.0043482142857142</v>
       </c>
       <c r="L9">
-        <v>0.0089590812416295</v>
+        <v>-0.0195438472627003</v>
       </c>
       <c r="M9">
-        <v>0.0486851895724463</v>
+        <v>0.0256008151087969</v>
       </c>
       <c r="N9">
-        <v>13.897440332065</v>
+        <v>2.45661824051655</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q9">
         <v>1816385</v>
@@ -1211,19 +1202,19 @@
         <v>5539997</v>
       </c>
       <c r="S9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1237,40 +1228,40 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10">
-        <v>0.30668639352499</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.807692307692308</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.86</v>
+        <v>7.91</v>
       </c>
       <c r="K10">
-        <v>-0.0196868248031038</v>
+        <v>-0.012542925824176</v>
       </c>
       <c r="L10">
-        <v>-0.100359772680859</v>
+        <v>-0.0834150743238849</v>
       </c>
       <c r="M10">
-        <v>0.0555934860465551</v>
+        <v>0.0556421160863301</v>
       </c>
       <c r="N10">
-        <v>-0.250468508945342</v>
+        <v>-0.15857049082397</v>
       </c>
       <c r="O10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P10" t="s">
         <v>50</v>
@@ -1282,16 +1273,16 @@
         <v>5539997</v>
       </c>
       <c r="S10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1308,40 +1299,40 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11">
-        <v>0.054088781393366</v>
+        <v>0.314927269521601</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="H11">
-        <v>0.907407407407407</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0.225</v>
+        <v>0.1885</v>
       </c>
       <c r="K11">
-        <v>0.0273557558945908</v>
+        <v>0.0092817651098901</v>
       </c>
       <c r="L11">
-        <v>0.00052805497047</v>
+        <v>-0.0276987995774229</v>
       </c>
       <c r="M11">
-        <v>0.0428327968483946</v>
+        <v>0.0292642832770412</v>
       </c>
       <c r="N11">
-        <v>12.1581137309293</v>
+        <v>4.92401332089661</v>
       </c>
       <c r="O11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>1816385</v>
@@ -1350,19 +1341,19 @@
         <v>5539997</v>
       </c>
       <c r="S11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W11" t="s">
         <v>63</v>
-      </c>
-      <c r="W11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1379,40 +1370,40 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12">
-        <v>0.0453012335014556</v>
+        <v>0.373203421583519</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.777777777777778</v>
+        <v>0.759259259259259</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.415</v>
+        <v>0.35</v>
       </c>
       <c r="K12">
-        <v>0.0327872531418312</v>
+        <v>0.0050171703296703</v>
       </c>
       <c r="L12">
-        <v>0.0014607597154618</v>
+        <v>-0.0257614451669585</v>
       </c>
       <c r="M12">
-        <v>0.0501717032967033</v>
+        <v>0.0461940827001549</v>
       </c>
       <c r="N12">
-        <v>7.90054292574247</v>
+        <v>1.43347723704867</v>
       </c>
       <c r="O12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q12">
         <v>1816385</v>
@@ -1421,19 +1412,19 @@
         <v>5539997</v>
       </c>
       <c r="S12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W12" t="s">
         <v>63</v>
-      </c>
-      <c r="W12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1450,40 +1441,40 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13">
-        <v>0.175295770308443</v>
+        <v>0.177119863361393</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.666666666666667</v>
+        <v>0.62962962962963</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0285</v>
+        <v>0.025</v>
       </c>
       <c r="K13">
-        <v>0.0019532085561497</v>
+        <v>0.0013611801242236</v>
       </c>
       <c r="L13">
-        <v>-0.0014953356071447</v>
+        <v>-0.001001149736508</v>
       </c>
       <c r="M13">
-        <v>0.0045775273066209</v>
+        <v>0.0037079643744475</v>
       </c>
       <c r="N13">
-        <v>6.85336335491134</v>
+        <v>5.44472049689441</v>
       </c>
       <c r="O13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q13">
         <v>1816385</v>
@@ -1492,19 +1483,19 @@
         <v>5539997</v>
       </c>
       <c r="S13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W13" t="s">
         <v>63</v>
-      </c>
-      <c r="W13" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1521,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14">
-        <v>0.335316866292631</v>
+        <v>0.258133914820214</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1536,22 +1527,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3.765</v>
+        <v>3.205</v>
       </c>
       <c r="K14">
-        <v>0.128835978835979</v>
+        <v>0.11315834767642</v>
       </c>
       <c r="L14">
-        <v>-0.308277450482708</v>
+        <v>-0.221520784667021</v>
       </c>
       <c r="M14">
-        <v>0.8696428571428581</v>
+        <v>0.726287606357583</v>
       </c>
       <c r="N14">
-        <v>3.42193834889718</v>
+        <v>3.5306816747713</v>
       </c>
       <c r="O14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P14" t="s">
         <v>47</v>
@@ -1563,19 +1554,19 @@
         <v>5539997</v>
       </c>
       <c r="S14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1592,40 +1583,40 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15">
-        <v>0.0001264967984368</v>
+        <v>0.025945823148215</v>
       </c>
       <c r="G15">
-        <v>0.0294117647058824</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H15">
-        <v>0.838235294117647</v>
+        <v>0.8088235294117651</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="K15">
-        <v>1.4592986578868</v>
+        <v>0.583574255086056</v>
       </c>
       <c r="L15">
-        <v>0.554014488954913</v>
+        <v>0.0204751067291188</v>
       </c>
       <c r="M15">
-        <v>2.21146465769037</v>
+        <v>1.44565852623282</v>
       </c>
       <c r="N15">
-        <v>24.3216442981133</v>
+        <v>8.645544519793431</v>
       </c>
       <c r="O15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <v>1816385</v>
@@ -1634,19 +1625,19 @@
         <v>5539997</v>
       </c>
       <c r="S15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
+        <v>58</v>
+      </c>
+      <c r="U15" t="s">
+        <v>59</v>
+      </c>
+      <c r="V15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" t="s">
         <v>61</v>
-      </c>
-      <c r="U15" t="s">
-        <v>62</v>
-      </c>
-      <c r="V15" t="s">
-        <v>63</v>
-      </c>
-      <c r="W15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1663,37 +1654,37 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>0.041249995412792</v>
+        <v>0.040397359348915</v>
       </c>
       <c r="G16">
-        <v>0.0097087378640776</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="H16">
-        <v>0.669902912621359</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>-0.0589470836181362</v>
+        <v>-0.0465286624203822</v>
       </c>
       <c r="L16">
-        <v>-0.150058625467906</v>
+        <v>-0.122183904825426</v>
       </c>
       <c r="M16">
-        <v>-0.0065634613894403</v>
+        <v>-0.009201671076991101</v>
       </c>
       <c r="N16">
-        <v>-5.61400796363202</v>
+        <v>-4.65286624203822</v>
       </c>
       <c r="O16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P16" t="s">
         <v>52</v>
@@ -1705,19 +1696,19 @@
         <v>5539997</v>
       </c>
       <c r="S16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" t="s">
         <v>62</v>
-      </c>
-      <c r="V16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1734,37 +1725,37 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>0.967459747475532</v>
+        <v>0.981587706547164</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.845454545454545</v>
+        <v>0.828828828828829</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.325</v>
+        <v>10.41</v>
       </c>
       <c r="K17">
-        <v>0.0385760594046535</v>
+        <v>0.0582921370182951</v>
       </c>
       <c r="L17">
-        <v>0.002662161371654</v>
+        <v>0.0055574793802611</v>
       </c>
       <c r="M17">
-        <v>0.09101377511048039</v>
+        <v>0.0925735099160039</v>
       </c>
       <c r="N17">
-        <v>0.373618008761777</v>
+        <v>0.559962891626274</v>
       </c>
       <c r="O17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P17" t="s">
         <v>53</v>
@@ -1776,19 +1767,19 @@
         <v>5539997</v>
       </c>
       <c r="S17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V17" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" t="s">
         <v>63</v>
-      </c>
-      <c r="W17" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1808,13 +1799,13 @@
         <v>41</v>
       </c>
       <c r="F18">
-        <v>0.515853287041373</v>
+        <v>0.985778081084803</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.353982300884956</v>
+        <v>0.345132743362832</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1823,22 +1814,22 @@
         <v>0.014</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>-0.000596328694163</v>
       </c>
       <c r="L18">
-        <v>-0.0004831910069999</v>
+        <v>-0.0010704326043504</v>
       </c>
       <c r="M18">
-        <v>0.0004119632455003</v>
+        <v>-0.0001287477363918</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>-4.2594906725933</v>
       </c>
       <c r="O18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q18">
         <v>1816385</v>
@@ -1847,19 +1838,19 @@
         <v>5539997</v>
       </c>
       <c r="S18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1876,40 +1867,40 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19">
-        <v>0.567982869655385</v>
+        <v>0.862020699812477</v>
       </c>
       <c r="G19">
         <v>0.0088495575221238</v>
       </c>
       <c r="H19">
-        <v>0.716814159292035</v>
+        <v>0.7610619469026551</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="K19">
-        <v>-0.591239638627076</v>
+        <v>-5.82773405629254</v>
       </c>
       <c r="L19">
-        <v>-11.4254374940504</v>
+        <v>-16.092503815029</v>
       </c>
       <c r="M19">
-        <v>8.928749887661301</v>
+        <v>2.41973281124282</v>
       </c>
       <c r="N19">
-        <v>-0.328466465903931</v>
+        <v>-3.55349637578814</v>
       </c>
       <c r="O19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q19">
         <v>1816385</v>
@@ -1918,19 +1909,19 @@
         <v>5539997</v>
       </c>
       <c r="S19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1950,19 +1941,19 @@
         <v>42</v>
       </c>
       <c r="F20">
-        <v>0.318389366526835</v>
+        <v>0.612511453065492</v>
       </c>
       <c r="G20">
-        <v>0.542056074766355</v>
+        <v>0.509259259259259</v>
       </c>
       <c r="H20">
-        <v>0.551401869158878</v>
+        <v>0.574074074074074</v>
       </c>
       <c r="I20">
         <v>10</v>
       </c>
       <c r="J20">
-        <v>0.0086085763789034</v>
+        <v>0.0101651458273421</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1977,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q20">
         <v>1816385</v>
@@ -1989,19 +1980,19 @@
         <v>5539997</v>
       </c>
       <c r="S20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2018,16 +2009,16 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21">
-        <v>0.930850789874306</v>
+        <v>0.999957002463907</v>
       </c>
       <c r="G21">
-        <v>0.194690265486726</v>
+        <v>0.274336283185841</v>
       </c>
       <c r="H21">
-        <v>0.265486725663717</v>
+        <v>0.247787610619469</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2036,22 +2027,22 @@
         <v>0.004</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-0.000571819960861</v>
       </c>
       <c r="L21">
-        <v>-0.0003786078373402</v>
+        <v>-0.0008861130368983</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-0.0003334094020994</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>-14.2954990215264</v>
       </c>
       <c r="O21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q21">
         <v>1816385</v>
@@ -2060,19 +2051,19 @@
         <v>5539997</v>
       </c>
       <c r="S21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2092,13 +2083,13 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.124696585162283</v>
+        <v>0.818288275649089</v>
       </c>
       <c r="G22">
-        <v>0.15929203539823</v>
+        <v>0.150442477876106</v>
       </c>
       <c r="H22">
-        <v>0.8141592920353981</v>
+        <v>0.823008849557522</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2107,22 +2098,22 @@
         <v>0.2532</v>
       </c>
       <c r="K22">
-        <v>0.0013958598726114</v>
+        <v>-0.0017496008211678</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-0.0133369084467728</v>
       </c>
       <c r="M22">
-        <v>0.0071717443858119</v>
+        <v>0.0006424182685308</v>
       </c>
       <c r="N22">
-        <v>0.551287469435808</v>
+        <v>-0.690995584979417</v>
       </c>
       <c r="O22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q22">
         <v>1816385</v>
@@ -2131,19 +2122,19 @@
         <v>5539997</v>
       </c>
       <c r="S22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2160,37 +2151,37 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23">
-        <v>0.635284351862103</v>
+        <v>0.753494529351533</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.718181818181818</v>
+        <v>0.747747747747748</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.845</v>
+        <v>7.87</v>
       </c>
       <c r="K23">
-        <v>0.0033376636661212</v>
+        <v>0.009938775510203999</v>
       </c>
       <c r="L23">
-        <v>-0.0129293010261704</v>
+        <v>-0.010002282062985</v>
       </c>
       <c r="M23">
-        <v>0.0250577695270632</v>
+        <v>0.0291592394105522</v>
       </c>
       <c r="N23">
-        <v>0.0425451072800668</v>
+        <v>0.126286855275783</v>
       </c>
       <c r="O23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P23" t="s">
         <v>55</v>
@@ -2202,16 +2193,16 @@
         <v>5539997</v>
       </c>
       <c r="S23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2228,40 +2219,40 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F24">
-        <v>0.0923314699061126</v>
+        <v>0.851249146968221</v>
       </c>
       <c r="G24">
-        <v>0.0530973451327434</v>
+        <v>0.0619469026548673</v>
       </c>
       <c r="H24">
-        <v>0.84070796460177</v>
+        <v>0.8141592920353981</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <v>0.294</v>
       </c>
       <c r="K24">
-        <v>0.0028096153846153</v>
+        <v>-0.0033329374572795</v>
       </c>
       <c r="L24">
-        <v>-0.0001111084490341</v>
+        <v>-0.0204293945837895</v>
       </c>
       <c r="M24">
-        <v>0.0107941434270706</v>
+        <v>0.0010018647426405</v>
       </c>
       <c r="N24">
-        <v>0.955651491365777</v>
+        <v>-1.13365219635359</v>
       </c>
       <c r="O24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q24">
         <v>1816385</v>
@@ -2270,19 +2261,19 @@
         <v>5539997</v>
       </c>
       <c r="S24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" t="s">
         <v>63</v>
-      </c>
-      <c r="W24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2299,40 +2290,40 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F25">
-        <v>0.642115956384125</v>
+        <v>0.9892778762561391</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.7079646017699111</v>
+        <v>0.646017699115044</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="K25">
-        <v>-0.0019991789819376</v>
+        <v>-0.016831797235023</v>
       </c>
       <c r="L25">
-        <v>-0.0189653096159292</v>
+        <v>-0.0410186808579711</v>
       </c>
       <c r="M25">
-        <v>0.0080066418901734</v>
+        <v>-0.0037950238484695</v>
       </c>
       <c r="N25">
-        <v>-0.434604126508174</v>
+        <v>-3.74039938556067</v>
       </c>
       <c r="O25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q25">
         <v>1816385</v>
@@ -2341,19 +2332,19 @@
         <v>5539997</v>
       </c>
       <c r="S25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V25" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" t="s">
         <v>63</v>
-      </c>
-      <c r="W25" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2370,40 +2361,40 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26">
-        <v>0.799981380505401</v>
+        <v>0.988669560464686</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.628318584070796</v>
+        <v>0.601769911504425</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.031</v>
+        <v>0.029</v>
       </c>
       <c r="K26">
-        <v>-0.0004880376982391</v>
+        <v>-0.001547945151658</v>
       </c>
       <c r="L26">
-        <v>-0.0019289437384684</v>
+        <v>-0.0033013606453296</v>
       </c>
       <c r="M26">
-        <v>0.0006275917637454</v>
+        <v>-0.0003818906459816</v>
       </c>
       <c r="N26">
-        <v>-1.57431515561008</v>
+        <v>-5.33774190226904</v>
       </c>
       <c r="O26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q26">
         <v>1816385</v>
@@ -2412,19 +2403,19 @@
         <v>5539997</v>
       </c>
       <c r="S26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V26" t="s">
+        <v>60</v>
+      </c>
+      <c r="W26" t="s">
         <v>63</v>
-      </c>
-      <c r="W26" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2441,10 +2432,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27">
-        <v>0.566549449467299</v>
+        <v>0.411588225575221</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2456,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>4.87</v>
+        <v>3.78</v>
       </c>
       <c r="K27">
-        <v>-0.007996715927750401</v>
+        <v>0.0112615621788284</v>
       </c>
       <c r="L27">
-        <v>-0.126470154140232</v>
+        <v>-0.1214122668507</v>
       </c>
       <c r="M27">
-        <v>0.119267493515926</v>
+        <v>0.141344739450916</v>
       </c>
       <c r="N27">
-        <v>-0.164203612479475</v>
+        <v>0.29792492536583</v>
       </c>
       <c r="O27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q27">
         <v>1816385</v>
@@ -2483,19 +2474,19 @@
         <v>5539997</v>
       </c>
       <c r="S27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2512,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F28">
-        <v>0.0011031759825726</v>
+        <v>0.0471427383451179</v>
       </c>
       <c r="G28">
-        <v>0.0165289256198347</v>
+        <v>0.0330578512396694</v>
       </c>
       <c r="H28">
-        <v>0.809917355371901</v>
+        <v>0.793388429752066</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2530,22 +2521,22 @@
         <v>4.95</v>
       </c>
       <c r="K28">
-        <v>0.374487354750513</v>
+        <v>0.152957279562543</v>
       </c>
       <c r="L28">
-        <v>0.0814279572382777</v>
+        <v>0.0007721506637326</v>
       </c>
       <c r="M28">
-        <v>0.798902391366198</v>
+        <v>0.49573982729001</v>
       </c>
       <c r="N28">
-        <v>7.56540110607096</v>
+        <v>3.09004605176854</v>
       </c>
       <c r="O28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q28">
         <v>1816385</v>
@@ -2554,19 +2545,19 @@
         <v>5539997</v>
       </c>
       <c r="S28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T28" t="s">
+        <v>58</v>
+      </c>
+      <c r="U28" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" t="s">
         <v>61</v>
-      </c>
-      <c r="U28" t="s">
-        <v>62</v>
-      </c>
-      <c r="V28" t="s">
-        <v>63</v>
-      </c>
-      <c r="W28" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2583,16 +2574,16 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29">
-        <v>0.108108070154734</v>
+        <v>0.039987677707652</v>
       </c>
       <c r="G29">
-        <v>0.0136986301369863</v>
+        <v>0.0138888888888889</v>
       </c>
       <c r="H29">
-        <v>0.547945205479452</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -2601,22 +2592,22 @@
         <v>1.2</v>
       </c>
       <c r="K29">
-        <v>-0.023582958325181</v>
+        <v>-0.0332347588717015</v>
       </c>
       <c r="L29">
-        <v>-0.0674268197332781</v>
+        <v>-0.0748974709501025</v>
       </c>
       <c r="M29">
-        <v>0.00578534919475</v>
+        <v>-0.0006825431635799</v>
       </c>
       <c r="N29">
-        <v>-1.96524652709841</v>
+        <v>-2.76956323930846</v>
       </c>
       <c r="O29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q29">
         <v>1816385</v>
@@ -2625,19 +2616,19 @@
         <v>5539997</v>
       </c>
       <c r="S29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U29" t="s">
+        <v>59</v>
+      </c>
+      <c r="V29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" t="s">
         <v>62</v>
-      </c>
-      <c r="V29" t="s">
-        <v>63</v>
-      </c>
-      <c r="W29" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2654,16 +2645,16 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F30">
-        <v>0.08435789680013391</v>
+        <v>0.332852283512524</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.808641975308642</v>
+        <v>0.795180722891566</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2672,22 +2663,22 @@
         <v>10.47</v>
       </c>
       <c r="K30">
-        <v>-0.0276646328634548</v>
+        <v>-0.0059632869416306</v>
       </c>
       <c r="L30">
-        <v>-0.0553422327251708</v>
+        <v>-0.0346058964422123</v>
       </c>
       <c r="M30">
-        <v>0.0025307296164499</v>
+        <v>0.0173102717597482</v>
       </c>
       <c r="N30">
-        <v>-0.264227630023446</v>
+        <v>-0.0569559402256989</v>
       </c>
       <c r="O30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q30">
         <v>1816385</v>
@@ -2696,19 +2687,19 @@
         <v>5539997</v>
       </c>
       <c r="S30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V30" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" t="s">
         <v>63</v>
-      </c>
-      <c r="W30" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2728,34 +2719,34 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.936779407595883</v>
+        <v>0.968073148027776</v>
       </c>
       <c r="G31">
-        <v>0.0421686746987952</v>
+        <v>0.0532544378698225</v>
       </c>
       <c r="H31">
-        <v>0.313253012048193</v>
+        <v>0.289940828402367</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="K31">
-        <v>-0.0003332320566728</v>
+        <v>-0.0003494739912061</v>
       </c>
       <c r="L31">
-        <v>-0.0009143148516469</v>
+        <v>-0.000748974709501</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>-2.22154704448566</v>
+        <v>-2.4962427943297</v>
       </c>
       <c r="O31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P31" t="s">
         <v>54</v>
@@ -2767,19 +2758,19 @@
         <v>5539997</v>
       </c>
       <c r="S31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2796,40 +2787,40 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F32">
-        <v>0.86746517209896</v>
+        <v>0.986046417327417</v>
       </c>
       <c r="G32">
-        <v>0.0060240963855421</v>
+        <v>0.0059171597633136</v>
       </c>
       <c r="H32">
-        <v>0.704819277108434</v>
+        <v>0.72189349112426</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K32">
-        <v>-3.93305814788227</v>
+        <v>-7.19648294306156</v>
       </c>
       <c r="L32">
-        <v>-10.1934326398272</v>
+        <v>-12.7600778606474</v>
       </c>
       <c r="M32">
-        <v>1.73453726085779</v>
+        <v>-1.81237595031532</v>
       </c>
       <c r="N32">
-        <v>-1.92796968033445</v>
+        <v>-3.59824147153078</v>
       </c>
       <c r="O32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q32">
         <v>1816385</v>
@@ -2838,19 +2829,19 @@
         <v>5539997</v>
       </c>
       <c r="S32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2867,40 +2858,40 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F33">
-        <v>0.999986858131731</v>
+        <v>0.999941656330064</v>
       </c>
       <c r="G33">
-        <v>0.449367088607595</v>
+        <v>0.45679012345679</v>
       </c>
       <c r="H33">
-        <v>0.620253164556962</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="I33">
         <v>12</v>
       </c>
       <c r="J33">
-        <v>0.0122538836525961</v>
+        <v>0.0115614790276607</v>
       </c>
       <c r="K33">
-        <v>-0.0009254396238083</v>
+        <v>-0.0006609019832194</v>
       </c>
       <c r="L33">
-        <v>-0.0021915040177302</v>
+        <v>-0.0017118360732636</v>
       </c>
       <c r="M33">
-        <v>-6.02816663267365E-05</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>-7.5522148736275</v>
+        <v>-5.71641380517383</v>
       </c>
       <c r="O33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Q33">
         <v>1816385</v>
@@ -2909,19 +2900,19 @@
         <v>5539997</v>
       </c>
       <c r="S33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2938,16 +2929,16 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F34">
-        <v>0.991533771114242</v>
+        <v>0.999779922369887</v>
       </c>
       <c r="G34">
-        <v>0.19496855345912</v>
+        <v>0.236686390532544</v>
       </c>
       <c r="H34">
-        <v>0.232704402515723</v>
+        <v>0.21301775147929</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2956,22 +2947,22 @@
         <v>0.004</v>
       </c>
       <c r="K34">
-        <v>-0.000193357346642</v>
+        <v>-0.0002785310957638</v>
       </c>
       <c r="L34">
-        <v>-0.0003992383890356</v>
+        <v>-0.0004993164730006</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-4.51250891217066E-05</v>
       </c>
       <c r="N34">
-        <v>-4.83393366605139</v>
+        <v>-6.96327739409713</v>
       </c>
       <c r="O34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Q34">
         <v>1816385</v>
@@ -2980,19 +2971,19 @@
         <v>5539997</v>
       </c>
       <c r="S34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3009,41 +3000,41 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F35">
-        <v>0.792780444740693</v>
+        <v>0.940411894537974</v>
       </c>
       <c r="G35">
-        <v>0.157232704402516</v>
+        <v>0.171597633136095</v>
       </c>
       <c r="H35">
-        <v>0.786163522012579</v>
+        <v>0.775147928994083</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35">
-        <v>0.274</v>
+        <v>0.2532</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>-0.0017819818083228</v>
       </c>
       <c r="L35">
-        <v>-0.0062182416203751</v>
+        <v>-0.0077285321028079</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>-0.703784284487715</v>
       </c>
       <c r="O35" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35" t="s">
         <v>44</v>
       </c>
-      <c r="P35" t="s">
-        <v>56</v>
-      </c>
       <c r="Q35">
         <v>1816385</v>
       </c>
@@ -3051,19 +3042,19 @@
         <v>5539997</v>
       </c>
       <c r="S35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3080,40 +3071,40 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F36">
-        <v>0.998182564540301</v>
+        <v>0.9984285593912851</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.602484472049689</v>
+        <v>0.6181818181818181</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.78</v>
+        <v>7.8</v>
       </c>
       <c r="K36">
-        <v>0.0208714285714285</v>
+        <v>0.0236609273781111</v>
       </c>
       <c r="L36">
-        <v>0.0102471937746739</v>
+        <v>0.0100049725416616</v>
       </c>
       <c r="M36">
-        <v>0.0340656278434941</v>
+        <v>0.0328997435142176</v>
       </c>
       <c r="N36">
-        <v>0.268270290121189</v>
+        <v>0.303345222796296</v>
       </c>
       <c r="O36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q36">
         <v>1816385</v>
@@ -3122,16 +3113,16 @@
         <v>5539997</v>
       </c>
       <c r="S36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3148,40 +3139,40 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F37">
-        <v>0.975200443115797</v>
+        <v>0.9914335519238699</v>
       </c>
       <c r="G37">
-        <v>0.036144578313253</v>
+        <v>0.0414201183431953</v>
       </c>
       <c r="H37">
-        <v>0.86144578313253</v>
+        <v>0.85207100591716</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>0.329</v>
+        <v>0.3156</v>
       </c>
       <c r="K37">
-        <v>-0.0058826660879162</v>
+        <v>-0.0058834099021917</v>
       </c>
       <c r="L37">
-        <v>-0.0167550973586129</v>
+        <v>-0.0167257837036499</v>
       </c>
       <c r="M37">
-        <v>-0.0002721214721614</v>
+        <v>-0.0007504576191081</v>
       </c>
       <c r="N37">
-        <v>-1.78804440362195</v>
+        <v>-1.86419832135354</v>
       </c>
       <c r="O37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q37">
         <v>1816385</v>
@@ -3190,19 +3181,19 @@
         <v>5539997</v>
       </c>
       <c r="S37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V37" t="s">
+        <v>60</v>
+      </c>
+      <c r="W37" t="s">
         <v>63</v>
-      </c>
-      <c r="W37" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3219,40 +3210,40 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38">
-        <v>0.984893792786147</v>
+        <v>0.9986016577642191</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.710843373493976</v>
+        <v>0.674556213017751</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.495</v>
+        <v>0.46</v>
       </c>
       <c r="K38">
-        <v>-0.0099578877047082</v>
+        <v>-0.0105531109861755</v>
       </c>
       <c r="L38">
-        <v>-0.0249932710621755</v>
+        <v>-0.0244052064992798</v>
       </c>
       <c r="M38">
-        <v>-0.0019185649509946</v>
+        <v>-0.0041249105693701</v>
       </c>
       <c r="N38">
-        <v>-2.01169448579964</v>
+        <v>-2.29415456221206</v>
       </c>
       <c r="O38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q38">
         <v>1816385</v>
@@ -3261,19 +3252,19 @@
         <v>5539997</v>
       </c>
       <c r="S38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V38" t="s">
+        <v>60</v>
+      </c>
+      <c r="W38" t="s">
         <v>63</v>
-      </c>
-      <c r="W38" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3290,40 +3281,40 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F39">
-        <v>0.632014151326977</v>
+        <v>0.841689841026127</v>
       </c>
       <c r="G39">
-        <v>0.0060240963855421</v>
+        <v>0.0059171597633136</v>
       </c>
       <c r="H39">
-        <v>0.5481927710843369</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>0.0345</v>
+        <v>0.031</v>
       </c>
       <c r="K39">
-        <v>-0.0001423701733786</v>
+        <v>-0.0003906659685526</v>
       </c>
       <c r="L39">
-        <v>-0.000993526077058</v>
+        <v>-0.0010002282062984</v>
       </c>
       <c r="M39">
-        <v>0.000499421631798</v>
+        <v>0.0002225681299037</v>
       </c>
       <c r="N39">
-        <v>-0.412667169213572</v>
+        <v>-1.26021280178264</v>
       </c>
       <c r="O39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q39">
         <v>1816385</v>
@@ -3332,19 +3323,19 @@
         <v>5539997</v>
       </c>
       <c r="S39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V39" t="s">
+        <v>60</v>
+      </c>
+      <c r="W39" t="s">
         <v>63</v>
-      </c>
-      <c r="W39" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3361,40 +3352,40 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F40">
-        <v>0.45533810989989</v>
+        <v>0.568215610542927</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.8915662650602409</v>
+        <v>0.893491124260355</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>3.445</v>
+        <v>3.32</v>
       </c>
       <c r="K40">
-        <v>0.0026503821356128</v>
+        <v>-0.0070776881446711</v>
       </c>
       <c r="L40">
-        <v>-0.0465600070347622</v>
+        <v>-0.0558813592539266</v>
       </c>
       <c r="M40">
-        <v>0.0735172328016027</v>
+        <v>0.0449172667843747</v>
       </c>
       <c r="N40">
-        <v>0.0769341693936974</v>
+        <v>-0.213183377851539</v>
       </c>
       <c r="O40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P40" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q40">
         <v>1816385</v>
@@ -3403,19 +3394,19 @@
         <v>5539997</v>
       </c>
       <c r="S40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3432,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F41">
         <v>0.110335680959923</v>
@@ -3447,25 +3438,25 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.42</v>
+        <v>0.384</v>
       </c>
       <c r="K41">
-        <v>-0.0299632943337207</v>
+        <v>-0.0280973322793165</v>
       </c>
       <c r="L41">
-        <v>-0.0892068386098296</v>
+        <v>-0.09919459226384091</v>
       </c>
       <c r="M41">
         <v>-0.0003535560295432</v>
       </c>
       <c r="N41">
-        <v>-7.13411769850492</v>
+        <v>-7.31701361440534</v>
       </c>
       <c r="O41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q41">
         <v>1816385</v>
@@ -3474,16 +3465,16 @@
         <v>5539997</v>
       </c>
       <c r="S41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3500,10 +3491,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F42">
-        <v>0.5</v>
+        <v>0.9352243235477961</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3518,23 +3509,23 @@
         <v>94.44</v>
       </c>
       <c r="K42">
-        <v>-0.226352112676055</v>
+        <v>2.09056434184301</v>
       </c>
       <c r="L42">
-        <v>-5.67137403382103</v>
+        <v>-0.115556876866411</v>
       </c>
       <c r="M42">
-        <v>2.05841795515465</v>
+        <v>2.93607015797179</v>
       </c>
       <c r="N42">
-        <v>-0.239678221808614</v>
+        <v>2.21364288632254</v>
       </c>
       <c r="O42" t="s">
+        <v>43</v>
+      </c>
+      <c r="P42" t="s">
         <v>44</v>
       </c>
-      <c r="P42" t="s">
-        <v>47</v>
-      </c>
       <c r="Q42">
         <v>1816385</v>
       </c>
@@ -3542,16 +3533,16 @@
         <v>5539997</v>
       </c>
       <c r="S42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3568,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43">
         <v>0.5</v>
@@ -3583,25 +3574,25 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>6.06</v>
+        <v>5.907</v>
       </c>
       <c r="K43">
-        <v>-0.0496746872308385</v>
+        <v>-0.109863459609758</v>
       </c>
       <c r="L43">
-        <v>-0.842929566920994</v>
+        <v>-1.89514262309167</v>
       </c>
       <c r="M43">
         <v>0.200428167472421</v>
       </c>
       <c r="N43">
-        <v>-0.819714310739909</v>
+        <v>-1.85988589148058</v>
       </c>
       <c r="O43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P43" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q43">
         <v>1816385</v>
@@ -3610,16 +3601,16 @@
         <v>5539997</v>
       </c>
       <c r="S43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3636,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F44">
-        <v>0.015911563693245</v>
+        <v>0.0100223343113141</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3651,22 +3642,22 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.434</v>
+        <v>0.424</v>
       </c>
       <c r="K44">
-        <v>-0.0174748989218329</v>
+        <v>-0.0183709900990099</v>
       </c>
       <c r="L44">
         <v>-0.0316702888874678</v>
       </c>
       <c r="M44">
-        <v>-0.005858065915268</v>
+        <v>-0.00738891329073</v>
       </c>
       <c r="N44">
-        <v>-4.02647440595227</v>
+        <v>-4.33278068372875</v>
       </c>
       <c r="O44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P44" t="s">
         <v>52</v>
@@ -3678,16 +3669,16 @@
         <v>5539997</v>
       </c>
       <c r="S44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3704,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45">
-        <v>0.063424647007573</v>
+        <v>0.264799404212504</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3722,22 +3713,22 @@
         <v>99.5</v>
       </c>
       <c r="K45">
-        <v>-1.39070612668743</v>
+        <v>-0.45270422535211</v>
       </c>
       <c r="L45">
-        <v>-2.62482389084049</v>
+        <v>-2.30971537875008</v>
       </c>
       <c r="M45">
-        <v>-0.09553022752947669</v>
+        <v>0.477906785561199</v>
       </c>
       <c r="N45">
-        <v>-1.39769459968586</v>
+        <v>-0.454979120956895</v>
       </c>
       <c r="O45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P45" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q45">
         <v>1816385</v>
@@ -3746,16 +3737,16 @@
         <v>5539997</v>
       </c>
       <c r="S45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3772,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F46">
         <v>0.295752518497458</v>
@@ -3787,25 +3778,25 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>5.9835</v>
+        <v>5.7885</v>
       </c>
       <c r="K46">
-        <v>-0.0403591160220995</v>
+        <v>-0.0811531072502506</v>
       </c>
       <c r="L46">
-        <v>-0.211273238594981</v>
+        <v>-0.30236793234261</v>
       </c>
       <c r="M46">
         <v>0.0840540312667781</v>
       </c>
       <c r="N46">
-        <v>-0.67450682747722</v>
+        <v>-1.40197127494602</v>
       </c>
       <c r="O46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q46">
         <v>1816385</v>
@@ -3814,16 +3805,16 @@
         <v>5539997</v>
       </c>
       <c r="S46" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V46" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
